--- a/Results/Correlation_Matrix_macro.xlsx
+++ b/Results/Correlation_Matrix_macro.xlsx
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,13 +75,543 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF1F1F1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB40426"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3B4CC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF08A6C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ABBFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92B4FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7B396"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4DBE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF59D7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5572DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98B9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4257C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBD8EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3C4EC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6BFA6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8D6CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE67259"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7295F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7AD90"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE97A5F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADC9FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D50C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCD2F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBD3C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5977E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6E90F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84A7FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDD2C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD75445"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A78E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFD3F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAAC7FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B7AE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFABC8FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5D7CE6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1D4F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFDAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7D7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1DAE9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5E7DE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9C6FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBED2F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF85A8FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BADFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1DAD6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5DBE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6A283"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF506BDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD5C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF88ABFD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF779AF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF688AEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEDCDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5D8D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2C1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6788EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7B89C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF516DDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6C4FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9EBEFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7699F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C0A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7B79B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6282EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3C7B1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEED0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5875E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6D7CF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6687ED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6A8BEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2CCFB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81A4FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2DBE8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7093F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4987A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2C9B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4C6AF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FB1FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90B2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C2AA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DB0FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF18D6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5C3FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4055C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1CBFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1CDBA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF29072"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -111,11 +641,97 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,40 +1077,40 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>-0.5730577889560017</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>0.6908696649818954</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>-0.04015158790586178</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>0.05501331094362667</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>0.5323016875538171</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>-0.4818505716021383</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>-0.476101679780911</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>-0.725057955908169</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>0.3214772886091836</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="9">
         <v>0.6225466106797246</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>-0.573807651533466</v>
       </c>
     </row>
@@ -502,40 +1118,40 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>-0.5730577889560017</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>-0.03252555121896837</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="12">
         <v>-0.4181740082500178</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="13">
         <v>0.2758902636841432</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="14">
         <v>-0.4620402279221076</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="15">
         <v>0.4722517142079172</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="16">
         <v>0.3304145961978167</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="17">
         <v>0.7230767588096129</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="18">
         <v>-0.0491169159552456</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>-0.06957028593265999</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="19">
         <v>0.5236503480861152</v>
       </c>
     </row>
@@ -543,40 +1159,40 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="20">
         <v>0.6908696649818954</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="21">
         <v>-0.03252555121896837</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="22">
         <v>-0.4431374515477623</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="23">
         <v>0.2149201781399691</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="24">
         <v>0.3542139379067165</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="25">
         <v>-0.3314320204656856</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="26">
         <v>-0.2376117826578164</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="27">
         <v>-0.335080671103397</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="28">
         <v>0.4513636883826436</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="29">
         <v>0.8509321647554806</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="30">
         <v>-0.413358663937467</v>
       </c>
     </row>
@@ -584,40 +1200,40 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="31">
         <v>-0.04015158790586178</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="25">
         <v>-0.4181740082500178</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>-0.4431374515477623</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>-0.2860286034121077</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="31">
         <v>0.1103428288199751</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="32">
         <v>0.01104062378386001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="33">
         <v>-0.3155579503534306</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="34">
         <v>-0.1411125386328471</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="35">
         <v>-0.1270391291485531</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>-0.4562756918890865</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="36">
         <v>0.05992564045494481</v>
       </c>
     </row>
@@ -625,40 +1241,40 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="37">
         <v>0.05501331094362667</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="38">
         <v>0.2758902636841432</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="39">
         <v>0.2149201781399691</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="40">
         <v>-0.2860286034121077</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="41">
         <v>0.01551627802269524</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="42">
         <v>0.1006599678265757</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="43">
         <v>-0.1377682470738551</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="16">
         <v>0.2116620539981279</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="44">
         <v>0.04225213104519022</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="45">
         <v>0.2971835275578957</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="46">
         <v>0.1675010079245106</v>
       </c>
     </row>
@@ -666,40 +1282,40 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="47">
         <v>0.5323016875538171</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="48">
         <v>-0.4620402279221076</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="49">
         <v>0.3542139379067165</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="23">
         <v>0.1103428288199751</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="50">
         <v>0.01551627802269524</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="51">
         <v>-0.1992646774980232</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="35">
         <v>-0.3091941884547981</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="52">
         <v>-0.4733798806249851</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="53">
         <v>0.3733570420733315</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="54">
         <v>0.3218477437330541</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="55">
         <v>-0.0852710940480866</v>
       </c>
     </row>
@@ -707,40 +1323,40 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="56">
         <v>-0.4818505716021383</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="57">
         <v>0.4722517142079172</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="58">
         <v>-0.3314320204656856</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="59">
         <v>0.01104062378386001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="60">
         <v>0.1006599678265757</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="61">
         <v>-0.1992646774980232</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="62">
         <v>0.4679344076724847</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="63">
         <v>0.4293666968045646</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>-0.2697987975501372</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="64">
         <v>-0.2708477250182927</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="65">
         <v>0.3962978901017559</v>
       </c>
     </row>
@@ -748,40 +1364,40 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="56">
         <v>-0.476101679780911</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="66">
         <v>0.3304145961978167</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="56">
         <v>-0.2376117826578164</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="67">
         <v>-0.3155579503534306</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="40">
         <v>-0.1377682470738551</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="35">
         <v>-0.3091941884547981</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="15">
         <v>0.4679344076724847</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="68">
         <v>0.1996670115617211</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="69">
         <v>-0.09489837355334262</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="70">
         <v>-0.2385443030068074</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="71">
         <v>-0.008297983575692417</v>
       </c>
     </row>
@@ -789,40 +1405,40 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>-0.725057955908169</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="20">
         <v>0.7230767588096129</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="58">
         <v>-0.335080671103397</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="72">
         <v>-0.1411125386328471</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="23">
         <v>0.2116620539981279</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>-0.4733798806249851</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="65">
         <v>0.4293666968045646</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="73">
         <v>0.1996670115617211</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="30">
         <v>-0.1386282392989899</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="74">
         <v>-0.2081535878961127</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="75">
         <v>0.607590721295749</v>
       </c>
     </row>
@@ -830,40 +1446,40 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="76">
         <v>0.3214772886091836</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="32">
         <v>-0.0491169159552456</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="77">
         <v>0.4513636883826436</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="27">
         <v>-0.1270391291485531</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="78">
         <v>0.04225213104519022</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="66">
         <v>0.3733570420733315</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="56">
         <v>-0.2697987975501372</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="79">
         <v>-0.09489837355334262</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="21">
         <v>-0.1386282392989899</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="80">
         <v>0.4626683230042133</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="81">
         <v>-0.177560213720512</v>
       </c>
     </row>
@@ -871,40 +1487,40 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="82">
         <v>0.6225466106797246</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="83">
         <v>-0.06957028593265999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="29">
         <v>0.8509321647554806</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>-0.4562756918890865</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="39">
         <v>0.2971835275578957</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="38">
         <v>0.3218477437330541</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="56">
         <v>-0.2708477250182927</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="26">
         <v>-0.2385443030068074</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="60">
         <v>-0.2081535878961127</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="66">
         <v>0.4626683230042133</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="26">
         <v>-0.318581777213691</v>
       </c>
     </row>
@@ -912,40 +1528,40 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <v>-0.573807651533466</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="19">
         <v>0.5236503480861152</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="84">
         <v>-0.413358663937467</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="85">
         <v>0.05992564045494481</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="85">
         <v>0.1675010079245106</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>-0.0852710940480866</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="86">
         <v>0.3962978901017559</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="83">
         <v>-0.008297983575692417</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="87">
         <v>0.607590721295749</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="48">
         <v>-0.177560213720512</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="67">
         <v>-0.318581777213691</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Results/Correlation_Matrix_macro.xlsx
+++ b/Results/Correlation_Matrix_macro.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14ac161be9f08974/Dokumente/GitHub/AQM/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_6D00C3A0DFE6EEDAEFFC9890E25CC233C02B3AC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E6D315-E329-4A5C-BE31-46E41F56AFC0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="19860" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -58,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +95,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="94">
+  <fills count="95">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +660,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAD4C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,114 +697,128 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="61" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="63" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="67" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="68" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="69" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="70" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="76" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="94" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="94" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -826,7 +860,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -858,9 +892,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,6 +944,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1067,543 +1137,559 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>-0.4209515729459818</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.2042897133393032</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.1417980526812851</v>
-      </c>
-      <c r="F2" s="6">
-        <v>-0.0327166645760498</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0.4405985412747579</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0.03164613441949889</v>
-      </c>
-      <c r="I2" s="9">
-        <v>-0.168066785310297</v>
-      </c>
-      <c r="J2" s="9">
-        <v>-0.2742390934218306</v>
-      </c>
-      <c r="K2" s="10">
-        <v>0.4447116042954142</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0.2698719928291423</v>
-      </c>
-      <c r="M2" s="12">
-        <v>-0.2963955451122319</v>
+      <c r="C2" s="2">
+        <v>-0.42095157294598179</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.20428971333930321</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.14179805268128509</v>
+      </c>
+      <c r="F2" s="5">
+        <v>-3.2716664576049798E-2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.44059854127475789</v>
+      </c>
+      <c r="H2" s="7">
+        <v>3.1646134419498893E-2</v>
+      </c>
+      <c r="I2" s="8">
+        <v>-0.16806678531029701</v>
+      </c>
+      <c r="J2" s="8">
+        <v>-0.27423909342183062</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.44471160429541418</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.26987199282914232</v>
+      </c>
+      <c r="M2" s="11">
+        <v>-0.29639554511223187</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
-        <v>-0.4209515729459818</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="8">
+        <v>-0.42095157294598179</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
-        <v>-0.2053142684752406</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="12">
+        <v>-0.20531426847524059</v>
+      </c>
+      <c r="E3" s="8">
         <v>-0.2515078753376076</v>
       </c>
-      <c r="F3" s="14">
-        <v>0.3535108827997726</v>
-      </c>
-      <c r="G3" s="9">
-        <v>-0.3163388625172622</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="F3" s="13">
+        <v>0.35351088279977261</v>
+      </c>
+      <c r="G3" s="8">
+        <v>-0.31633886251726218</v>
+      </c>
+      <c r="H3" s="14">
         <v>0.1706654076971737</v>
       </c>
-      <c r="I3" s="16">
-        <v>0.0333653403744125</v>
-      </c>
-      <c r="J3" s="17">
-        <v>0.3520049433833001</v>
-      </c>
-      <c r="K3" s="9">
-        <v>-0.4837350873903474</v>
-      </c>
-      <c r="L3" s="18">
-        <v>-0.2243256713920231</v>
-      </c>
-      <c r="M3" s="19">
-        <v>0.5520764260977039</v>
+      <c r="I3" s="15">
+        <v>3.3365340374412501E-2</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0.35200494338330007</v>
+      </c>
+      <c r="K3" s="8">
+        <v>-0.48373508739034737</v>
+      </c>
+      <c r="L3" s="17">
+        <v>-0.22432567139202311</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0.55207642609770391</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20">
-        <v>0.2042897133393032</v>
-      </c>
-      <c r="C4" s="21">
-        <v>-0.2053142684752406</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="19">
+        <v>0.20428971333930321</v>
+      </c>
+      <c r="C4" s="20">
+        <v>-0.20531426847524059</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="22">
-        <v>0.01613398442306493</v>
-      </c>
-      <c r="F4" s="9">
-        <v>-0.237841559741016</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="E4" s="21">
+        <v>1.6133984423064931E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>-0.23784155974101601</v>
+      </c>
+      <c r="G4" s="22">
         <v>0.1097332191035351</v>
       </c>
-      <c r="H4" s="24">
-        <v>0.1487964748837008</v>
-      </c>
-      <c r="I4" s="25">
-        <v>-0.1619626085824354</v>
-      </c>
-      <c r="J4" s="26">
-        <v>-0.02802000014343747</v>
-      </c>
-      <c r="K4" s="27">
+      <c r="H4" s="23">
+        <v>0.14879647488370079</v>
+      </c>
+      <c r="I4" s="24">
+        <v>-0.16196260858243541</v>
+      </c>
+      <c r="J4" s="25">
+        <v>-2.802000014343747E-2</v>
+      </c>
+      <c r="K4" s="26">
         <v>0.1824649579486588</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="27">
         <v>0.108669222002291</v>
       </c>
-      <c r="M4" s="29">
-        <v>-0.2107330333663039</v>
+      <c r="M4" s="28">
+        <v>-0.21073303336630389</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="30">
-        <v>0.1417980526812851</v>
-      </c>
-      <c r="C5" s="31">
+      <c r="B5" s="29">
+        <v>0.14179805268128509</v>
+      </c>
+      <c r="C5" s="30">
         <v>-0.2515078753376076</v>
       </c>
-      <c r="D5" s="32">
-        <v>0.01613398442306493</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="31">
+        <v>1.6133984423064931E-2</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="33">
-        <v>-0.09777140067941251</v>
-      </c>
-      <c r="G5" s="34">
-        <v>0.08454640866685982</v>
-      </c>
-      <c r="H5" s="35">
-        <v>-0.1095837741063063</v>
-      </c>
-      <c r="I5" s="36">
-        <v>-0.1450126690863094</v>
-      </c>
-      <c r="J5" s="37">
+      <c r="F5" s="32">
+        <v>-9.7771400679412507E-2</v>
+      </c>
+      <c r="G5" s="33">
+        <v>8.4546408666859821E-2</v>
+      </c>
+      <c r="H5" s="34">
+        <v>-0.10958377410630631</v>
+      </c>
+      <c r="I5" s="35">
+        <v>-0.14501266908630939</v>
+      </c>
+      <c r="J5" s="36">
         <v>-0.154138656283791</v>
       </c>
-      <c r="K5" s="38">
-        <v>0.349893146286176</v>
-      </c>
-      <c r="L5" s="39">
-        <v>0.2097893287907976</v>
-      </c>
-      <c r="M5" s="15">
+      <c r="K5" s="37">
+        <v>0.34989314628617602</v>
+      </c>
+      <c r="L5" s="38">
+        <v>0.20978932879079759</v>
+      </c>
+      <c r="M5" s="14">
         <v>-0.1250984645431848</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="40">
-        <v>-0.0327166645760498</v>
-      </c>
-      <c r="C6" s="41">
-        <v>0.3535108827997726</v>
-      </c>
-      <c r="D6" s="9">
-        <v>-0.237841559741016</v>
-      </c>
-      <c r="E6" s="42">
-        <v>-0.09777140067941251</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="B6" s="39">
+        <v>-3.2716664576049798E-2</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0.35351088279977261</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-0.23784155974101601</v>
+      </c>
+      <c r="E6" s="41">
+        <v>-9.7771400679412507E-2</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="18">
-        <v>-0.05048761112797463</v>
-      </c>
-      <c r="H6" s="43">
-        <v>-0.0637078778404355</v>
-      </c>
-      <c r="I6" s="44">
-        <v>0.007549963503112058</v>
-      </c>
-      <c r="J6" s="45">
-        <v>0.05387809811007058</v>
-      </c>
-      <c r="K6" s="46">
-        <v>-0.0639647367331187</v>
-      </c>
-      <c r="L6" s="47">
-        <v>0.04138411392915065</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.01308499977494684</v>
+      <c r="G6" s="17">
+        <v>-5.0487611127974633E-2</v>
+      </c>
+      <c r="H6" s="42">
+        <v>-6.3707877840435495E-2</v>
+      </c>
+      <c r="I6" s="43">
+        <v>7.5499635031120579E-3</v>
+      </c>
+      <c r="J6" s="44">
+        <v>5.3878098110070577E-2</v>
+      </c>
+      <c r="K6" s="45">
+        <v>-6.3964736733118699E-2</v>
+      </c>
+      <c r="L6" s="46">
+        <v>4.1384113929150652E-2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1.3084999774946839E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="48">
-        <v>0.4405985412747579</v>
-      </c>
-      <c r="C7" s="33">
-        <v>-0.3163388625172622</v>
-      </c>
-      <c r="D7" s="49">
+      <c r="B7" s="47">
+        <v>0.44059854127475789</v>
+      </c>
+      <c r="C7" s="32">
+        <v>-0.31633886251726218</v>
+      </c>
+      <c r="D7" s="48">
         <v>0.1097332191035351</v>
       </c>
-      <c r="E7" s="15">
-        <v>0.08454640866685982</v>
-      </c>
-      <c r="F7" s="44">
-        <v>-0.05048761112797463</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="E7" s="14">
+        <v>8.4546408666859821E-2</v>
+      </c>
+      <c r="F7" s="43">
+        <v>-5.0487611127974633E-2</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="9">
-        <v>-0.1294538163561141</v>
-      </c>
-      <c r="I7" s="50">
-        <v>-0.08955020203191887</v>
-      </c>
-      <c r="J7" s="51">
-        <v>-0.1604068655795612</v>
-      </c>
-      <c r="K7" s="52">
+      <c r="H7" s="8">
+        <v>-0.12945381635611411</v>
+      </c>
+      <c r="I7" s="49">
+        <v>-8.9550202031918866E-2</v>
+      </c>
+      <c r="J7" s="50">
+        <v>-0.16040686557956119</v>
+      </c>
+      <c r="K7" s="51">
         <v>0.4885463104634874</v>
       </c>
-      <c r="L7" s="53">
+      <c r="L7" s="52">
         <v>0.1246386315583632</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="23">
         <v>-0.1517194815254472</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="54">
-        <v>0.03164613441949889</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="B8" s="53">
+        <v>3.1646134419498893E-2</v>
+      </c>
+      <c r="C8" s="19">
         <v>0.1706654076971737</v>
       </c>
-      <c r="D8" s="55">
-        <v>0.1487964748837008</v>
-      </c>
-      <c r="E8" s="56">
-        <v>-0.1095837741063063</v>
-      </c>
-      <c r="F8" s="8">
-        <v>-0.0637078778404355</v>
-      </c>
-      <c r="G8" s="8">
-        <v>-0.1294538163561141</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="D8" s="54">
+        <v>0.14879647488370079</v>
+      </c>
+      <c r="E8" s="55">
+        <v>-0.10958377410630631</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-6.3707877840435495E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>-0.12945381635611411</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="57">
-        <v>-0.0403274350352743</v>
-      </c>
-      <c r="J8" s="58">
+      <c r="I8" s="56">
+        <v>-4.0327435035274299E-2</v>
+      </c>
+      <c r="J8" s="57">
         <v>0.2918456422522947</v>
       </c>
-      <c r="K8" s="59">
-        <v>-0.05710763954712787</v>
-      </c>
-      <c r="L8" s="60">
-        <v>0.1856414645555217</v>
-      </c>
-      <c r="M8" s="61">
-        <v>0.0331430497552939</v>
+      <c r="K8" s="58">
+        <v>-5.7107639547127872E-2</v>
+      </c>
+      <c r="L8" s="59">
+        <v>0.18564146455552169</v>
+      </c>
+      <c r="M8" s="60">
+        <v>3.3143049755293898E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="62">
-        <v>-0.168066785310297</v>
-      </c>
-      <c r="C9" s="63">
-        <v>0.0333653403744125</v>
-      </c>
-      <c r="D9" s="64">
-        <v>-0.1619626085824354</v>
-      </c>
-      <c r="E9" s="65">
-        <v>-0.1450126690863094</v>
-      </c>
-      <c r="F9" s="66">
-        <v>0.007549963503112058</v>
-      </c>
-      <c r="G9" s="16">
-        <v>-0.08955020203191887</v>
-      </c>
-      <c r="H9" s="67">
-        <v>-0.0403274350352743</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="B9" s="61">
+        <v>-0.16806678531029701</v>
+      </c>
+      <c r="C9" s="62">
+        <v>3.3365340374412501E-2</v>
+      </c>
+      <c r="D9" s="63">
+        <v>-0.16196260858243541</v>
+      </c>
+      <c r="E9" s="64">
+        <v>-0.14501266908630939</v>
+      </c>
+      <c r="F9" s="65">
+        <v>7.5499635031120579E-3</v>
+      </c>
+      <c r="G9" s="15">
+        <v>-8.9550202031918866E-2</v>
+      </c>
+      <c r="H9" s="66">
+        <v>-4.0327435035274299E-2</v>
+      </c>
+      <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="15">
-        <v>0.0649090545022474</v>
-      </c>
-      <c r="K9" s="68">
-        <v>-0.1079778496408444</v>
-      </c>
-      <c r="L9" s="69">
-        <v>-0.08418750767505742</v>
-      </c>
-      <c r="M9" s="70">
-        <v>0.05479544322478054</v>
+      <c r="J9" s="14">
+        <v>6.4909054502247404E-2</v>
+      </c>
+      <c r="K9" s="67">
+        <v>-0.10797784964084441</v>
+      </c>
+      <c r="L9" s="68">
+        <v>-8.4187507675057421E-2</v>
+      </c>
+      <c r="M9" s="69">
+        <v>5.4795443224780541E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="71">
-        <v>-0.2742390934218306</v>
-      </c>
-      <c r="C10" s="41">
-        <v>0.3520049433833001</v>
-      </c>
-      <c r="D10" s="72">
-        <v>-0.02802000014343747</v>
-      </c>
-      <c r="E10" s="73">
+      <c r="B10" s="70">
+        <v>-0.27423909342183062</v>
+      </c>
+      <c r="C10" s="40">
+        <v>0.35200494338330007</v>
+      </c>
+      <c r="D10" s="71">
+        <v>-2.802000014343747E-2</v>
+      </c>
+      <c r="E10" s="72">
         <v>-0.154138656283791</v>
       </c>
-      <c r="F10" s="74">
-        <v>0.05387809811007058</v>
-      </c>
-      <c r="G10" s="75">
-        <v>-0.1604068655795612</v>
-      </c>
-      <c r="H10" s="47">
+      <c r="F10" s="73">
+        <v>5.3878098110070577E-2</v>
+      </c>
+      <c r="G10" s="74">
+        <v>-0.16040686557956119</v>
+      </c>
+      <c r="H10" s="46">
         <v>0.2918456422522947</v>
       </c>
-      <c r="I10" s="18">
-        <v>0.0649090545022474</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I10" s="17">
+        <v>6.4909054502247404E-2</v>
+      </c>
+      <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="8">
-        <v>-0.271816308645749</v>
-      </c>
-      <c r="L10" s="76">
+      <c r="K10" s="7">
+        <v>-0.27181630864574902</v>
+      </c>
+      <c r="L10" s="75">
         <v>-0.1086336885733718</v>
       </c>
-      <c r="M10" s="77">
-        <v>0.4341206636187167</v>
+      <c r="M10" s="76">
+        <v>0.43412066361871671</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="48">
-        <v>0.4447116042954142</v>
-      </c>
-      <c r="C11" s="9">
-        <v>-0.4837350873903474</v>
-      </c>
-      <c r="D11" s="78">
+      <c r="B11" s="47">
+        <v>0.44471160429541418</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-0.48373508739034737</v>
+      </c>
+      <c r="D11" s="77">
         <v>0.1824649579486588</v>
       </c>
-      <c r="E11" s="79">
-        <v>0.349893146286176</v>
-      </c>
-      <c r="F11" s="80">
-        <v>-0.0639647367331187</v>
-      </c>
-      <c r="G11" s="81">
+      <c r="E11" s="78">
+        <v>0.34989314628617602</v>
+      </c>
+      <c r="F11" s="79">
+        <v>-6.3964736733118699E-2</v>
+      </c>
+      <c r="G11" s="80">
         <v>0.4885463104634874</v>
       </c>
-      <c r="H11" s="82">
-        <v>-0.05710763954712787</v>
-      </c>
-      <c r="I11" s="83">
-        <v>-0.1079778496408444</v>
-      </c>
-      <c r="J11" s="9">
-        <v>-0.271816308645749</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="H11" s="81">
+        <v>-5.7107639547127872E-2</v>
+      </c>
+      <c r="I11" s="82">
+        <v>-0.10797784964084441</v>
+      </c>
+      <c r="J11" s="8">
+        <v>-0.27181630864574902</v>
+      </c>
+      <c r="K11" s="1">
         <v>1</v>
       </c>
-      <c r="L11" s="84">
-        <v>0.3654458078519768</v>
-      </c>
-      <c r="M11" s="65">
-        <v>-0.403232699906568</v>
+      <c r="L11" s="83">
+        <v>0.36544580785197678</v>
+      </c>
+      <c r="M11" s="64">
+        <v>-0.40323269990656802</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="39">
-        <v>0.2698719928291423</v>
-      </c>
-      <c r="C12" s="16">
-        <v>-0.2243256713920231</v>
-      </c>
-      <c r="D12" s="49">
+      <c r="B12" s="38">
+        <v>0.26987199282914232</v>
+      </c>
+      <c r="C12" s="15">
+        <v>-0.22432567139202311</v>
+      </c>
+      <c r="D12" s="48">
         <v>0.108669222002291</v>
       </c>
-      <c r="E12" s="61">
-        <v>0.2097893287907976</v>
-      </c>
-      <c r="F12" s="85">
-        <v>0.04138411392915065</v>
-      </c>
-      <c r="G12" s="86">
+      <c r="E12" s="60">
+        <v>0.20978932879079759</v>
+      </c>
+      <c r="F12" s="84">
+        <v>4.1384113929150652E-2</v>
+      </c>
+      <c r="G12" s="85">
         <v>0.1246386315583632</v>
       </c>
-      <c r="H12" s="49">
-        <v>0.1856414645555217</v>
-      </c>
-      <c r="I12" s="87">
-        <v>-0.08418750767505742</v>
-      </c>
-      <c r="J12" s="88">
+      <c r="H12" s="48">
+        <v>0.18564146455552169</v>
+      </c>
+      <c r="I12" s="86">
+        <v>-8.4187507675057421E-2</v>
+      </c>
+      <c r="J12" s="87">
         <v>-0.1086336885733718</v>
       </c>
-      <c r="K12" s="89">
-        <v>0.3654458078519768</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="K12" s="88">
+        <v>0.36544580785197678</v>
+      </c>
+      <c r="L12" s="1">
         <v>1</v>
       </c>
-      <c r="M12" s="9">
-        <v>-0.5335903293816568</v>
+      <c r="M12" s="8">
+        <v>-0.53359032938165685</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="51">
-        <v>-0.2963955451122319</v>
-      </c>
-      <c r="C13" s="90">
-        <v>0.5520764260977039</v>
-      </c>
-      <c r="D13" s="36">
-        <v>-0.2107330333663039</v>
-      </c>
-      <c r="E13" s="91">
+      <c r="B13" s="50">
+        <v>-0.29639554511223187</v>
+      </c>
+      <c r="C13" s="89">
+        <v>0.55207642609770391</v>
+      </c>
+      <c r="D13" s="35">
+        <v>-0.21073303336630389</v>
+      </c>
+      <c r="E13" s="90">
         <v>-0.1250984645431848</v>
       </c>
-      <c r="F13" s="18">
-        <v>0.01308499977494684</v>
-      </c>
-      <c r="G13" s="92">
+      <c r="F13" s="17">
+        <v>1.3084999774946839E-2</v>
+      </c>
+      <c r="G13" s="91">
         <v>-0.1517194815254472</v>
       </c>
-      <c r="H13" s="8">
-        <v>0.0331430497552939</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0.05479544322478054</v>
-      </c>
-      <c r="J13" s="93">
-        <v>0.4341206636187167</v>
-      </c>
-      <c r="K13" s="83">
-        <v>-0.403232699906568</v>
-      </c>
-      <c r="L13" s="9">
-        <v>-0.5335903293816568</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="H13" s="7">
+        <v>3.3143049755293898E-2</v>
+      </c>
+      <c r="I13" s="20">
+        <v>5.4795443224780541E-2</v>
+      </c>
+      <c r="J13" s="92">
+        <v>0.43412066361871671</v>
+      </c>
+      <c r="K13" s="82">
+        <v>-0.40323269990656802</v>
+      </c>
+      <c r="L13" s="8">
+        <v>-0.53359032938165685</v>
+      </c>
+      <c r="M13" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Results/Correlation_Matrix_macro.xlsx
+++ b/Results/Correlation_Matrix_macro.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14ac161be9f08974/Dokumente/GitHub/AQM/Results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_6D00C3A0DFE6EEDAEFFC9890E25CC233C02B3AC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75E6D315-E329-4A5C-BE31-46E41F56AFC0}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="19860" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -64,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +89,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="95">
+  <fills count="94">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,12 +646,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAD4C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,128 +677,114 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="48" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="50" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="51" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="52" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="53" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="54" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="55" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="56" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="57" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="58" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="59" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="60" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="61" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="62" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="63" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="64" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="65" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="66" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="67" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="68" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="69" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="70" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="71" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="72" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="73" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="74" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="75" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="76" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="77" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="78" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="79" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="80" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="81" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="82" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="83" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="84" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="85" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="86" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="87" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="88" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="89" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="90" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="91" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="92" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="93" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="94" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="94" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -860,7 +826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,27 +858,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -944,24 +892,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1137,559 +1067,543 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="95" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="95" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>-0.42095157294598179</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.20428971333930321</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.14179805268128509</v>
-      </c>
-      <c r="F2" s="5">
-        <v>-3.2716664576049798E-2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.44059854127475789</v>
-      </c>
-      <c r="H2" s="7">
-        <v>3.1646134419498893E-2</v>
-      </c>
-      <c r="I2" s="8">
-        <v>-0.16806678531029701</v>
-      </c>
-      <c r="J2" s="8">
-        <v>-0.27423909342183062</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0.44471160429541418</v>
-      </c>
-      <c r="L2" s="10">
-        <v>0.26987199282914232</v>
-      </c>
-      <c r="M2" s="11">
-        <v>-0.29639554511223187</v>
+      <c r="C2" s="3">
+        <v>-0.4209515729459818</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.2042897133393032</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.1417980526812851</v>
+      </c>
+      <c r="F2" s="6">
+        <v>-0.0327166645760498</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.4405985412747579</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.03164613441949889</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-0.168066785310297</v>
+      </c>
+      <c r="J2" s="9">
+        <v>-0.2742390934218306</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.4447116042954142</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.2698719928291423</v>
+      </c>
+      <c r="M2" s="12">
+        <v>-0.2963955451122319</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
-        <v>-0.42095157294598179</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="9">
+        <v>-0.4209515729459818</v>
+      </c>
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="12">
-        <v>-0.20531426847524059</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="13">
+        <v>-0.2053142684752406</v>
+      </c>
+      <c r="E3" s="9">
         <v>-0.2515078753376076</v>
       </c>
-      <c r="F3" s="13">
-        <v>0.35351088279977261</v>
-      </c>
-      <c r="G3" s="8">
-        <v>-0.31633886251726218</v>
-      </c>
-      <c r="H3" s="14">
+      <c r="F3" s="14">
+        <v>0.3535108827997726</v>
+      </c>
+      <c r="G3" s="9">
+        <v>-0.3163388625172622</v>
+      </c>
+      <c r="H3" s="15">
         <v>0.1706654076971737</v>
       </c>
-      <c r="I3" s="15">
-        <v>3.3365340374412501E-2</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0.35200494338330007</v>
-      </c>
-      <c r="K3" s="8">
-        <v>-0.48373508739034737</v>
-      </c>
-      <c r="L3" s="17">
-        <v>-0.22432567139202311</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0.55207642609770391</v>
+      <c r="I3" s="16">
+        <v>0.0333653403744125</v>
+      </c>
+      <c r="J3" s="17">
+        <v>0.3520049433833001</v>
+      </c>
+      <c r="K3" s="9">
+        <v>-0.4837350873903474</v>
+      </c>
+      <c r="L3" s="18">
+        <v>-0.2243256713920231</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0.5520764260977039</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19">
-        <v>0.20428971333930321</v>
-      </c>
-      <c r="C4" s="20">
-        <v>-0.20531426847524059</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="20">
+        <v>0.2042897133393032</v>
+      </c>
+      <c r="C4" s="21">
+        <v>-0.2053142684752406</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="21">
-        <v>1.6133984423064931E-2</v>
-      </c>
-      <c r="F4" s="8">
-        <v>-0.23784155974101601</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="E4" s="22">
+        <v>0.01613398442306493</v>
+      </c>
+      <c r="F4" s="9">
+        <v>-0.237841559741016</v>
+      </c>
+      <c r="G4" s="23">
         <v>0.1097332191035351</v>
       </c>
-      <c r="H4" s="23">
-        <v>0.14879647488370079</v>
-      </c>
-      <c r="I4" s="24">
-        <v>-0.16196260858243541</v>
-      </c>
-      <c r="J4" s="25">
-        <v>-2.802000014343747E-2</v>
-      </c>
-      <c r="K4" s="26">
+      <c r="H4" s="24">
+        <v>0.1487964748837008</v>
+      </c>
+      <c r="I4" s="25">
+        <v>-0.1619626085824354</v>
+      </c>
+      <c r="J4" s="26">
+        <v>-0.02802000014343747</v>
+      </c>
+      <c r="K4" s="27">
         <v>0.1824649579486588</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="28">
         <v>0.108669222002291</v>
       </c>
-      <c r="M4" s="28">
-        <v>-0.21073303336630389</v>
+      <c r="M4" s="29">
+        <v>-0.2107330333663039</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="29">
-        <v>0.14179805268128509</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="B5" s="30">
+        <v>0.1417980526812851</v>
+      </c>
+      <c r="C5" s="31">
         <v>-0.2515078753376076</v>
       </c>
-      <c r="D5" s="31">
-        <v>1.6133984423064931E-2</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="32">
+        <v>0.01613398442306493</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="32">
-        <v>-9.7771400679412507E-2</v>
-      </c>
-      <c r="G5" s="33">
-        <v>8.4546408666859821E-2</v>
-      </c>
-      <c r="H5" s="34">
-        <v>-0.10958377410630631</v>
-      </c>
-      <c r="I5" s="35">
-        <v>-0.14501266908630939</v>
-      </c>
-      <c r="J5" s="36">
+      <c r="F5" s="33">
+        <v>-0.09777140067941251</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0.08454640866685982</v>
+      </c>
+      <c r="H5" s="35">
+        <v>-0.1095837741063063</v>
+      </c>
+      <c r="I5" s="36">
+        <v>-0.1450126690863094</v>
+      </c>
+      <c r="J5" s="37">
         <v>-0.154138656283791</v>
       </c>
-      <c r="K5" s="37">
-        <v>0.34989314628617602</v>
-      </c>
-      <c r="L5" s="38">
-        <v>0.20978932879079759</v>
-      </c>
-      <c r="M5" s="14">
+      <c r="K5" s="38">
+        <v>0.349893146286176</v>
+      </c>
+      <c r="L5" s="39">
+        <v>0.2097893287907976</v>
+      </c>
+      <c r="M5" s="15">
         <v>-0.1250984645431848</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="93" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39">
-        <v>-3.2716664576049798E-2</v>
-      </c>
-      <c r="C6" s="40">
-        <v>0.35351088279977261</v>
-      </c>
-      <c r="D6" s="8">
-        <v>-0.23784155974101601</v>
-      </c>
-      <c r="E6" s="41">
-        <v>-9.7771400679412507E-2</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="B6" s="40">
+        <v>-0.0327166645760498</v>
+      </c>
+      <c r="C6" s="41">
+        <v>0.3535108827997726</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-0.237841559741016</v>
+      </c>
+      <c r="E6" s="42">
+        <v>-0.09777140067941251</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="17">
-        <v>-5.0487611127974633E-2</v>
-      </c>
-      <c r="H6" s="42">
-        <v>-6.3707877840435495E-2</v>
-      </c>
-      <c r="I6" s="43">
-        <v>7.5499635031120579E-3</v>
-      </c>
-      <c r="J6" s="44">
-        <v>5.3878098110070577E-2</v>
-      </c>
-      <c r="K6" s="45">
-        <v>-6.3964736733118699E-2</v>
-      </c>
-      <c r="L6" s="46">
-        <v>4.1384113929150652E-2</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1.3084999774946839E-2</v>
+      <c r="G6" s="18">
+        <v>-0.05048761112797463</v>
+      </c>
+      <c r="H6" s="43">
+        <v>-0.0637078778404355</v>
+      </c>
+      <c r="I6" s="44">
+        <v>0.007549963503112058</v>
+      </c>
+      <c r="J6" s="45">
+        <v>0.05387809811007058</v>
+      </c>
+      <c r="K6" s="46">
+        <v>-0.0639647367331187</v>
+      </c>
+      <c r="L6" s="47">
+        <v>0.04138411392915065</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.01308499977494684</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="47">
-        <v>0.44059854127475789</v>
-      </c>
-      <c r="C7" s="32">
-        <v>-0.31633886251726218</v>
-      </c>
-      <c r="D7" s="48">
+      <c r="B7" s="48">
+        <v>0.4405985412747579</v>
+      </c>
+      <c r="C7" s="33">
+        <v>-0.3163388625172622</v>
+      </c>
+      <c r="D7" s="49">
         <v>0.1097332191035351</v>
       </c>
-      <c r="E7" s="14">
-        <v>8.4546408666859821E-2</v>
-      </c>
-      <c r="F7" s="43">
-        <v>-5.0487611127974633E-2</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="E7" s="15">
+        <v>0.08454640866685982</v>
+      </c>
+      <c r="F7" s="44">
+        <v>-0.05048761112797463</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="8">
-        <v>-0.12945381635611411</v>
-      </c>
-      <c r="I7" s="49">
-        <v>-8.9550202031918866E-2</v>
-      </c>
-      <c r="J7" s="50">
-        <v>-0.16040686557956119</v>
-      </c>
-      <c r="K7" s="51">
+      <c r="H7" s="9">
+        <v>-0.1294538163561141</v>
+      </c>
+      <c r="I7" s="50">
+        <v>-0.08955020203191887</v>
+      </c>
+      <c r="J7" s="51">
+        <v>-0.1604068655795612</v>
+      </c>
+      <c r="K7" s="52">
         <v>0.4885463104634874</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="53">
         <v>0.1246386315583632</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="24">
         <v>-0.1517194815254472</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="53">
-        <v>3.1646134419498893E-2</v>
-      </c>
-      <c r="C8" s="19">
+      <c r="B8" s="54">
+        <v>0.03164613441949889</v>
+      </c>
+      <c r="C8" s="20">
         <v>0.1706654076971737</v>
       </c>
-      <c r="D8" s="54">
-        <v>0.14879647488370079</v>
-      </c>
-      <c r="E8" s="55">
-        <v>-0.10958377410630631</v>
-      </c>
-      <c r="F8" s="7">
-        <v>-6.3707877840435495E-2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>-0.12945381635611411</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="D8" s="55">
+        <v>0.1487964748837008</v>
+      </c>
+      <c r="E8" s="56">
+        <v>-0.1095837741063063</v>
+      </c>
+      <c r="F8" s="8">
+        <v>-0.0637078778404355</v>
+      </c>
+      <c r="G8" s="8">
+        <v>-0.1294538163561141</v>
+      </c>
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="56">
-        <v>-4.0327435035274299E-2</v>
-      </c>
-      <c r="J8" s="57">
+      <c r="I8" s="57">
+        <v>-0.0403274350352743</v>
+      </c>
+      <c r="J8" s="58">
         <v>0.2918456422522947</v>
       </c>
-      <c r="K8" s="58">
-        <v>-5.7107639547127872E-2</v>
-      </c>
-      <c r="L8" s="59">
-        <v>0.18564146455552169</v>
-      </c>
-      <c r="M8" s="60">
-        <v>3.3143049755293898E-2</v>
+      <c r="K8" s="59">
+        <v>-0.05710763954712787</v>
+      </c>
+      <c r="L8" s="60">
+        <v>0.1856414645555217</v>
+      </c>
+      <c r="M8" s="61">
+        <v>0.0331430497552939</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="61">
-        <v>-0.16806678531029701</v>
-      </c>
-      <c r="C9" s="62">
-        <v>3.3365340374412501E-2</v>
-      </c>
-      <c r="D9" s="63">
-        <v>-0.16196260858243541</v>
-      </c>
-      <c r="E9" s="64">
-        <v>-0.14501266908630939</v>
-      </c>
-      <c r="F9" s="65">
-        <v>7.5499635031120579E-3</v>
-      </c>
-      <c r="G9" s="15">
-        <v>-8.9550202031918866E-2</v>
-      </c>
-      <c r="H9" s="66">
-        <v>-4.0327435035274299E-2</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="B9" s="62">
+        <v>-0.168066785310297</v>
+      </c>
+      <c r="C9" s="63">
+        <v>0.0333653403744125</v>
+      </c>
+      <c r="D9" s="64">
+        <v>-0.1619626085824354</v>
+      </c>
+      <c r="E9" s="65">
+        <v>-0.1450126690863094</v>
+      </c>
+      <c r="F9" s="66">
+        <v>0.007549963503112058</v>
+      </c>
+      <c r="G9" s="16">
+        <v>-0.08955020203191887</v>
+      </c>
+      <c r="H9" s="67">
+        <v>-0.0403274350352743</v>
+      </c>
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="14">
-        <v>6.4909054502247404E-2</v>
-      </c>
-      <c r="K9" s="67">
-        <v>-0.10797784964084441</v>
-      </c>
-      <c r="L9" s="68">
-        <v>-8.4187507675057421E-2</v>
-      </c>
-      <c r="M9" s="69">
-        <v>5.4795443224780541E-2</v>
+      <c r="J9" s="15">
+        <v>0.0649090545022474</v>
+      </c>
+      <c r="K9" s="68">
+        <v>-0.1079778496408444</v>
+      </c>
+      <c r="L9" s="69">
+        <v>-0.08418750767505742</v>
+      </c>
+      <c r="M9" s="70">
+        <v>0.05479544322478054</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="70">
-        <v>-0.27423909342183062</v>
-      </c>
-      <c r="C10" s="40">
-        <v>0.35200494338330007</v>
-      </c>
-      <c r="D10" s="71">
-        <v>-2.802000014343747E-2</v>
-      </c>
-      <c r="E10" s="72">
+      <c r="B10" s="71">
+        <v>-0.2742390934218306</v>
+      </c>
+      <c r="C10" s="41">
+        <v>0.3520049433833001</v>
+      </c>
+      <c r="D10" s="72">
+        <v>-0.02802000014343747</v>
+      </c>
+      <c r="E10" s="73">
         <v>-0.154138656283791</v>
       </c>
-      <c r="F10" s="73">
-        <v>5.3878098110070577E-2</v>
-      </c>
-      <c r="G10" s="74">
-        <v>-0.16040686557956119</v>
-      </c>
-      <c r="H10" s="46">
+      <c r="F10" s="74">
+        <v>0.05387809811007058</v>
+      </c>
+      <c r="G10" s="75">
+        <v>-0.1604068655795612</v>
+      </c>
+      <c r="H10" s="47">
         <v>0.2918456422522947</v>
       </c>
-      <c r="I10" s="17">
-        <v>6.4909054502247404E-2</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="18">
+        <v>0.0649090545022474</v>
+      </c>
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="7">
-        <v>-0.27181630864574902</v>
-      </c>
-      <c r="L10" s="75">
+      <c r="K10" s="8">
+        <v>-0.271816308645749</v>
+      </c>
+      <c r="L10" s="76">
         <v>-0.1086336885733718</v>
       </c>
-      <c r="M10" s="76">
-        <v>0.43412066361871671</v>
+      <c r="M10" s="77">
+        <v>0.4341206636187167</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="47">
-        <v>0.44471160429541418</v>
-      </c>
-      <c r="C11" s="8">
-        <v>-0.48373508739034737</v>
-      </c>
-      <c r="D11" s="77">
+      <c r="B11" s="48">
+        <v>0.4447116042954142</v>
+      </c>
+      <c r="C11" s="9">
+        <v>-0.4837350873903474</v>
+      </c>
+      <c r="D11" s="78">
         <v>0.1824649579486588</v>
       </c>
-      <c r="E11" s="78">
-        <v>0.34989314628617602</v>
-      </c>
-      <c r="F11" s="79">
-        <v>-6.3964736733118699E-2</v>
-      </c>
-      <c r="G11" s="80">
+      <c r="E11" s="79">
+        <v>0.349893146286176</v>
+      </c>
+      <c r="F11" s="80">
+        <v>-0.0639647367331187</v>
+      </c>
+      <c r="G11" s="81">
         <v>0.4885463104634874</v>
       </c>
-      <c r="H11" s="81">
-        <v>-5.7107639547127872E-2</v>
-      </c>
-      <c r="I11" s="82">
-        <v>-0.10797784964084441</v>
-      </c>
-      <c r="J11" s="8">
-        <v>-0.27181630864574902</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="H11" s="82">
+        <v>-0.05710763954712787</v>
+      </c>
+      <c r="I11" s="83">
+        <v>-0.1079778496408444</v>
+      </c>
+      <c r="J11" s="9">
+        <v>-0.271816308645749</v>
+      </c>
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-      <c r="L11" s="83">
-        <v>0.36544580785197678</v>
-      </c>
-      <c r="M11" s="64">
-        <v>-0.40323269990656802</v>
+      <c r="L11" s="84">
+        <v>0.3654458078519768</v>
+      </c>
+      <c r="M11" s="65">
+        <v>-0.403232699906568</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="93" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="38">
-        <v>0.26987199282914232</v>
-      </c>
-      <c r="C12" s="15">
-        <v>-0.22432567139202311</v>
-      </c>
-      <c r="D12" s="48">
+      <c r="B12" s="39">
+        <v>0.2698719928291423</v>
+      </c>
+      <c r="C12" s="16">
+        <v>-0.2243256713920231</v>
+      </c>
+      <c r="D12" s="49">
         <v>0.108669222002291</v>
       </c>
-      <c r="E12" s="60">
-        <v>0.20978932879079759</v>
-      </c>
-      <c r="F12" s="84">
-        <v>4.1384113929150652E-2</v>
-      </c>
-      <c r="G12" s="85">
+      <c r="E12" s="61">
+        <v>0.2097893287907976</v>
+      </c>
+      <c r="F12" s="85">
+        <v>0.04138411392915065</v>
+      </c>
+      <c r="G12" s="86">
         <v>0.1246386315583632</v>
       </c>
-      <c r="H12" s="48">
-        <v>0.18564146455552169</v>
-      </c>
-      <c r="I12" s="86">
-        <v>-8.4187507675057421E-2</v>
-      </c>
-      <c r="J12" s="87">
+      <c r="H12" s="49">
+        <v>0.1856414645555217</v>
+      </c>
+      <c r="I12" s="87">
+        <v>-0.08418750767505742</v>
+      </c>
+      <c r="J12" s="88">
         <v>-0.1086336885733718</v>
       </c>
-      <c r="K12" s="88">
-        <v>0.36544580785197678</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="K12" s="89">
+        <v>0.3654458078519768</v>
+      </c>
+      <c r="L12" s="2">
         <v>1</v>
       </c>
-      <c r="M12" s="8">
-        <v>-0.53359032938165685</v>
+      <c r="M12" s="9">
+        <v>-0.5335903293816568</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="50">
-        <v>-0.29639554511223187</v>
-      </c>
-      <c r="C13" s="89">
-        <v>0.55207642609770391</v>
-      </c>
-      <c r="D13" s="35">
-        <v>-0.21073303336630389</v>
-      </c>
-      <c r="E13" s="90">
+      <c r="B13" s="51">
+        <v>-0.2963955451122319</v>
+      </c>
+      <c r="C13" s="90">
+        <v>0.5520764260977039</v>
+      </c>
+      <c r="D13" s="36">
+        <v>-0.2107330333663039</v>
+      </c>
+      <c r="E13" s="91">
         <v>-0.1250984645431848</v>
       </c>
-      <c r="F13" s="17">
-        <v>1.3084999774946839E-2</v>
-      </c>
-      <c r="G13" s="91">
+      <c r="F13" s="18">
+        <v>0.01308499977494684</v>
+      </c>
+      <c r="G13" s="92">
         <v>-0.1517194815254472</v>
       </c>
-      <c r="H13" s="7">
-        <v>3.3143049755293898E-2</v>
-      </c>
-      <c r="I13" s="20">
-        <v>5.4795443224780541E-2</v>
-      </c>
-      <c r="J13" s="92">
-        <v>0.43412066361871671</v>
-      </c>
-      <c r="K13" s="82">
-        <v>-0.40323269990656802</v>
-      </c>
-      <c r="L13" s="8">
-        <v>-0.53359032938165685</v>
-      </c>
-      <c r="M13" s="1">
+      <c r="H13" s="8">
+        <v>0.0331430497552939</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.05479544322478054</v>
+      </c>
+      <c r="J13" s="93">
+        <v>0.4341206636187167</v>
+      </c>
+      <c r="K13" s="83">
+        <v>-0.403232699906568</v>
+      </c>
+      <c r="L13" s="9">
+        <v>-0.5335903293816568</v>
+      </c>
+      <c r="M13" s="2">
         <v>1</v>
       </c>
     </row>
